--- a/hardware/vectorscope/Badge2023_BOM_R1_TLM-StockNotes.xlsx
+++ b/hardware/vectorscope/Badge2023_BOM_R1_TLM-StockNotes.xlsx
@@ -1095,10 +1095,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:P91"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M37" sqref="M36:M37"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -2858,6 +2861,6 @@
     <hyperlink ref="P5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" scale="33" orientation="landscape" r:id="rId4"/>
 </worksheet>
 </file>
--- a/hardware/vectorscope/Badge2023_BOM_R1_TLM-StockNotes.xlsx
+++ b/hardware/vectorscope/Badge2023_BOM_R1_TLM-StockNotes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="29160" yWindow="270" windowWidth="27255" windowHeight="15645"/>
+    <workbookView xWindow="0" yWindow="270" windowWidth="23040" windowHeight="9510"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
@@ -1101,7 +1101,7 @@
   <dimension ref="A1:P91"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
